--- a/assets/json/books.xlsx
+++ b/assets/json/books.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10715"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10308"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ijung/Library/Mobile Documents/com~apple~CloudDocs/Desktop/Github/*jasjung.github.io/assets/json/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A9D1213-59EB-644D-AC55-73B31D53DE98}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5B65615-4DC3-5343-85F3-68E6E44710DA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1640" yWindow="1360" windowWidth="22800" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5540" yWindow="2280" windowWidth="22800" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="books" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="110">
   <si>
     <t>year</t>
   </si>
@@ -326,6 +326,33 @@
   </si>
   <si>
     <t>favorite</t>
+  </si>
+  <si>
+    <t>zero</t>
+  </si>
+  <si>
+    <t>assets/images/books/2020/zero.jpg</t>
+  </si>
+  <si>
+    <t>investor</t>
+  </si>
+  <si>
+    <t>assets/images/books/2020/investor.jpg</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>assets/images/books/2015/love.jpg</t>
+  </si>
+  <si>
+    <t>https://amzn.to/2LdqmN9</t>
+  </si>
+  <si>
+    <t>https://amzn.to/3bqU4Ji</t>
+  </si>
+  <si>
+    <t>https://amzn.to/2zsHHPi</t>
   </si>
 </sst>
 </file>
@@ -1181,17 +1208,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F31"/>
+  <dimension ref="A1:F34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A39" zoomScale="150" workbookViewId="0">
-      <selection activeCell="C51" sqref="C51"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="150" workbookViewId="0">
+      <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="25.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.5" customWidth="1"/>
-    <col min="5" max="5" width="10.83203125" style="2"/>
+    <col min="5" max="5" width="24" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.83203125" style="3"/>
   </cols>
   <sheetData>
@@ -1288,39 +1315,36 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="B6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6">
-        <v>1</v>
+        <v>101</v>
       </c>
       <c r="D6" t="s">
-        <v>6</v>
+        <v>96</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>19</v>
+        <v>107</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>20</v>
+        <v>102</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
+        <v>103</v>
       </c>
       <c r="D7" t="s">
-        <v>95</v>
+        <v>6</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>16</v>
+        <v>109</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>17</v>
+        <v>104</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
@@ -1328,51 +1352,53 @@
         <v>2019</v>
       </c>
       <c r="B8" t="s">
-        <v>21</v>
+        <v>18</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
       </c>
       <c r="D8" t="s">
-        <v>95</v>
+        <v>6</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="B9" t="s">
-        <v>33</v>
-      </c>
-      <c r="C9" s="1"/>
+        <v>15</v>
+      </c>
       <c r="D9" t="s">
-        <v>34</v>
+        <v>95</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>36</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="B10" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="D10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
@@ -1380,16 +1406,17 @@
         <v>2018</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="C11" s="1"/>
       <c r="D11" t="s">
-        <v>95</v>
+        <v>34</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
@@ -1397,16 +1424,16 @@
         <v>2018</v>
       </c>
       <c r="B12" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="D12" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
@@ -1414,50 +1441,50 @@
         <v>2018</v>
       </c>
       <c r="B13" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D13" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="B14" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="D14" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="B15" t="s">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>48</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
@@ -1465,19 +1492,16 @@
         <v>2017</v>
       </c>
       <c r="B16" t="s">
-        <v>49</v>
-      </c>
-      <c r="C16">
-        <v>1</v>
+        <v>43</v>
       </c>
       <c r="D16" t="s">
         <v>94</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
@@ -1485,16 +1509,16 @@
         <v>2017</v>
       </c>
       <c r="B17" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="D17" t="s">
         <v>94</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
@@ -1502,50 +1526,53 @@
         <v>2017</v>
       </c>
       <c r="B18" t="s">
-        <v>40</v>
+        <v>49</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
       </c>
       <c r="D18" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="B19" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="D19" t="s">
         <v>94</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="B20" t="s">
-        <v>61</v>
+        <v>40</v>
       </c>
       <c r="D20" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>62</v>
+        <v>41</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>63</v>
+        <v>42</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
@@ -1553,101 +1580,101 @@
         <v>2016</v>
       </c>
       <c r="B21" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D21" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="B22" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="D22" t="s">
         <v>94</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="B23" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="D23" t="s">
         <v>96</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="B24" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="D24" t="s">
-        <v>34</v>
+        <v>94</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="B25" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="D25" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="B26" t="s">
-        <v>80</v>
+        <v>105</v>
       </c>
       <c r="D26" t="s">
         <v>95</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>81</v>
+        <v>108</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>79</v>
+        <v>106</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
@@ -1655,16 +1682,16 @@
         <v>2014</v>
       </c>
       <c r="B27" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D27" t="s">
-        <v>96</v>
+        <v>34</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
@@ -1672,73 +1699,124 @@
         <v>2014</v>
       </c>
       <c r="B28" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="D28" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="B29" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="D29" t="s">
         <v>95</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="B30" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="D30" t="s">
         <v>96</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31">
+        <v>2014</v>
+      </c>
+      <c r="B31" t="s">
+        <v>84</v>
+      </c>
+      <c r="D31" t="s">
+        <v>96</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>2013</v>
+      </c>
+      <c r="B32" t="s">
+        <v>89</v>
+      </c>
+      <c r="D32" t="s">
+        <v>95</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>2013</v>
+      </c>
+      <c r="B33" t="s">
+        <v>85</v>
+      </c>
+      <c r="D33" t="s">
+        <v>96</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A34">
         <v>2011</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B34" t="s">
         <v>91</v>
       </c>
-      <c r="D31" t="s">
+      <c r="D34" t="s">
         <v>94</v>
       </c>
-      <c r="E31" s="2" t="s">
+      <c r="E34" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="F31" s="3" t="s">
+      <c r="F34" s="3" t="s">
         <v>92</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:F30" xr:uid="{00000000-0009-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F31">
-      <sortCondition descending="1" ref="A1:A31"/>
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F34">
+      <sortCondition descending="1" ref="A1:A34"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/assets/json/books.xlsx
+++ b/assets/json/books.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ijung/Library/Mobile Documents/com~apple~CloudDocs/Desktop/Github/*jasjung.github.io/assets/json/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5B65615-4DC3-5343-85F3-68E6E44710DA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{764F4F58-9ED5-CF4A-B0D6-D62E92849543}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5540" yWindow="2280" windowWidth="22800" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="116">
   <si>
     <t>year</t>
   </si>
@@ -353,6 +353,24 @@
   </si>
   <si>
     <t>https://amzn.to/2zsHHPi</t>
+  </si>
+  <si>
+    <t>gather into my name</t>
+  </si>
+  <si>
+    <t>cashflow quadrant</t>
+  </si>
+  <si>
+    <t>https://amzn.to/3ekcCN5</t>
+  </si>
+  <si>
+    <t>assets/images/books/2020/cashflow.jpg</t>
+  </si>
+  <si>
+    <t>https://amzn.to/2LZwE35</t>
+  </si>
+  <si>
+    <t>assets/images/books/considering/gather.jpg</t>
   </si>
 </sst>
 </file>
@@ -1208,10 +1226,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F34"/>
+  <dimension ref="A1:F36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="150" workbookViewId="0">
-      <selection activeCell="E35" sqref="E35"/>
+    <sheetView tabSelected="1" zoomScale="110" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1349,22 +1367,19 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="B8" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8">
-        <v>1</v>
+        <v>111</v>
       </c>
       <c r="D8" t="s">
         <v>6</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>19</v>
+        <v>112</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>20</v>
+        <v>113</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
@@ -1372,16 +1387,19 @@
         <v>2019</v>
       </c>
       <c r="B9" t="s">
-        <v>15</v>
+        <v>18</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
       </c>
       <c r="D9" t="s">
-        <v>95</v>
+        <v>6</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
@@ -1389,51 +1407,50 @@
         <v>2019</v>
       </c>
       <c r="B10" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D10" t="s">
         <v>95</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="B11" t="s">
-        <v>33</v>
-      </c>
-      <c r="C11" s="1"/>
+        <v>21</v>
+      </c>
       <c r="D11" t="s">
-        <v>34</v>
+        <v>95</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="B12" t="s">
-        <v>30</v>
+        <v>110</v>
       </c>
       <c r="D12" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>31</v>
+        <v>114</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>32</v>
+        <v>115</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
@@ -1441,16 +1458,17 @@
         <v>2018</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="C13" s="1"/>
       <c r="D13" t="s">
-        <v>95</v>
+        <v>34</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
@@ -1458,16 +1476,16 @@
         <v>2018</v>
       </c>
       <c r="B14" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="D14" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
@@ -1475,50 +1493,50 @@
         <v>2018</v>
       </c>
       <c r="B15" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D15" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="B16" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="D16" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="B17" t="s">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="D17" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>48</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
@@ -1526,19 +1544,16 @@
         <v>2017</v>
       </c>
       <c r="B18" t="s">
-        <v>49</v>
-      </c>
-      <c r="C18">
-        <v>1</v>
+        <v>43</v>
       </c>
       <c r="D18" t="s">
         <v>94</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
@@ -1546,16 +1561,16 @@
         <v>2017</v>
       </c>
       <c r="B19" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="D19" t="s">
         <v>94</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
@@ -1563,50 +1578,53 @@
         <v>2017</v>
       </c>
       <c r="B20" t="s">
-        <v>40</v>
+        <v>49</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
       </c>
       <c r="D20" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="B21" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="D21" t="s">
         <v>94</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="B22" t="s">
-        <v>61</v>
+        <v>40</v>
       </c>
       <c r="D22" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>62</v>
+        <v>41</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>63</v>
+        <v>42</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
@@ -1614,50 +1632,50 @@
         <v>2016</v>
       </c>
       <c r="B23" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D23" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="B24" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="D24" t="s">
         <v>94</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="B25" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="D25" t="s">
         <v>96</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
@@ -1665,50 +1683,50 @@
         <v>2015</v>
       </c>
       <c r="B26" t="s">
-        <v>105</v>
+        <v>67</v>
       </c>
       <c r="D26" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>108</v>
+        <v>68</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>106</v>
+        <v>69</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="B27" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="D27" t="s">
-        <v>34</v>
+        <v>96</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="B28" t="s">
-        <v>72</v>
+        <v>105</v>
       </c>
       <c r="D28" t="s">
         <v>95</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>71</v>
+        <v>108</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>70</v>
+        <v>106</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
@@ -1716,16 +1734,16 @@
         <v>2014</v>
       </c>
       <c r="B29" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="D29" t="s">
-        <v>95</v>
+        <v>34</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
@@ -1733,16 +1751,16 @@
         <v>2014</v>
       </c>
       <c r="B30" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="D30" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
@@ -1750,73 +1768,107 @@
         <v>2014</v>
       </c>
       <c r="B31" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D31" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="B32" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="D32" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="B33" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D33" t="s">
         <v>96</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34">
+        <v>2013</v>
+      </c>
+      <c r="B34" t="s">
+        <v>89</v>
+      </c>
+      <c r="D34" t="s">
+        <v>95</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>2013</v>
+      </c>
+      <c r="B35" t="s">
+        <v>85</v>
+      </c>
+      <c r="D35" t="s">
+        <v>96</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A36">
         <v>2011</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B36" t="s">
         <v>91</v>
       </c>
-      <c r="D34" t="s">
+      <c r="D36" t="s">
         <v>94</v>
       </c>
-      <c r="E34" s="2" t="s">
+      <c r="E36" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="F34" s="3" t="s">
+      <c r="F36" s="3" t="s">
         <v>92</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:F30" xr:uid="{00000000-0009-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F34">
-      <sortCondition descending="1" ref="A1:A34"/>
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F36">
+      <sortCondition descending="1" ref="A1:A36"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/assets/json/books.xlsx
+++ b/assets/json/books.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ijung/Library/Mobile Documents/com~apple~CloudDocs/Desktop/Github/*jasjung.github.io/assets/json/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{764F4F58-9ED5-CF4A-B0D6-D62E92849543}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0D3D91E-43E4-DF45-AEB1-6A9CD8915B16}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5540" yWindow="2280" windowWidth="22800" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1228,8 +1228,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="110" workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1237,7 +1237,7 @@
     <col min="2" max="2" width="25.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.5" customWidth="1"/>
     <col min="5" max="5" width="24" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.83203125" style="3"/>
+    <col min="6" max="6" width="39.33203125" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
